--- a/biology/Zoologie/Cicurinidae/Cicurinidae.xlsx
+++ b/biology/Zoologie/Cicurinidae/Cicurinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cicurinidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cicurinidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en écozone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en écozone holarctique.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 10/03/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 10/03/2024) :
 Brommella Tullgren, 1948
 Chorizomma Simon, 1872
 Cicurina Menge, 1871</t>
@@ -632,10 +652,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par F. O. Pickard-Cambridge en 1893 comme une sous-famille des Agelenidae.  Elle est placée dans les Dictynidae par Lehtinen en 1967[3] puis dans les Hahniidae par Wheeler et al. en 2017[4]. Elle est élevée au rang de famille par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023[5].
-Cette famille rassemble 167 espèces dans trois genres[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par F. O. Pickard-Cambridge en 1893 comme une sous-famille des Agelenidae.  Elle est placée dans les Dictynidae par Lehtinen en 1967 puis dans les Hahniidae par Wheeler et al. en 2017. Elle est élevée au rang de famille par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023.
+Cette famille rassemble 167 espèces dans trois genres.
 </t>
         </is>
       </c>
@@ -664,7 +686,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>F. O. Pickard-Cambridge, 1893 : « Handbook to the study of British spiders [part 5]. » British Naturalis, vol. 3, Supplement, p. 117-170.</t>
         </is>
